--- a/TestCase/TestDataOne.xlsx
+++ b/TestCase/TestDataOne.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvaleri\OneDrive - Capgemini\Desktop\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvaleri\Katalon Studio\TrainingProject\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4D9D64A577C15A4A541886181969D65ADEDD96" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65DB7690-84D9-4585-8C46-08DD3013903F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B86FF-D329-4124-AFB7-363D422B50C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="-14040" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>RAIVpflpDOg=</t>
   </si>
   <si>
-    <t>abc@your.com</t>
+    <t>123@your.com</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
